--- a/Nowcasts/2025Q2/tables/nowcasts_2025Q3_Nr1_Np3_Nj1.xlsx
+++ b/Nowcasts/2025Q2/tables/nowcasts_2025Q3_Nr1_Np3_Nj1.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>Row</t>
   </si>
@@ -22,6 +22,63 @@
   </si>
   <si>
     <t>2025-04-15</t>
+  </si>
+  <si>
+    <t>Prognose</t>
+  </si>
+  <si>
+    <t>surveys</t>
+  </si>
+  <si>
+    <t>production</t>
+  </si>
+  <si>
+    <t>orders</t>
+  </si>
+  <si>
+    <t>turnover</t>
+  </si>
+  <si>
+    <t>financial</t>
+  </si>
+  <si>
+    <t>labor market</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>national accounts</t>
+  </si>
+  <si>
+    <t>Revision</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>2025-03-30</t>
+  </si>
+  <si>
+    <t>2025-04-15</t>
+  </si>
+  <si>
+    <t>2025-04-30</t>
+  </si>
+  <si>
+    <t>2025-05-15</t>
+  </si>
+  <si>
+    <t>2025-05-30</t>
+  </si>
+  <si>
+    <t>2025-06-15</t>
+  </si>
+  <si>
+    <t>2025-06-30</t>
+  </si>
+  <si>
+    <t>2025-07-15</t>
   </si>
   <si>
     <t>Prognose</t>
@@ -97,60 +154,60 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:K9"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.37890625" customWidth="true"/>
     <col min="2" max="2" width="12.64453125" customWidth="true"/>
-    <col min="3" max="3" width="6.98046875" customWidth="true"/>
-    <col min="4" max="4" width="9.77734375" customWidth="true"/>
-    <col min="5" max="5" width="6.1796875" customWidth="true"/>
-    <col min="6" max="6" width="7.98046875" customWidth="true"/>
-    <col min="7" max="7" width="7.84375" customWidth="true"/>
-    <col min="8" max="8" width="11.3125" customWidth="true"/>
-    <col min="9" max="9" width="5.77734375" customWidth="true"/>
-    <col min="10" max="10" width="15.046875" customWidth="true"/>
-    <col min="11" max="11" width="7.7109375" customWidth="true"/>
+    <col min="3" max="3" width="15.64453125" customWidth="true"/>
+    <col min="4" max="4" width="15.24609375" customWidth="true"/>
+    <col min="5" max="5" width="15.77734375" customWidth="true"/>
+    <col min="6" max="6" width="15.77734375" customWidth="true"/>
+    <col min="7" max="7" width="16.24609375" customWidth="true"/>
+    <col min="8" max="8" width="16.24609375" customWidth="true"/>
+    <col min="9" max="9" width="16.24609375" customWidth="true"/>
+    <col min="10" max="10" width="15.64453125" customWidth="true"/>
+    <col min="11" max="11" width="16.24609375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="B2" s="0">
         <v>0.2922520866107145</v>
@@ -185,7 +242,7 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="B3" s="0">
         <v>0.28443469941904764</v>
@@ -216,6 +273,216 @@
       </c>
       <c r="K3" s="0">
         <v>-9.024905392268634e-05</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="0">
+        <v>0.29983528990147496</v>
+      </c>
+      <c r="C4" s="0">
+        <v>0.00022593232979937474</v>
+      </c>
+      <c r="D4" s="0">
+        <v>0</v>
+      </c>
+      <c r="E4" s="0">
+        <v>-8.0786859680533777e-06</v>
+      </c>
+      <c r="F4" s="0">
+        <v>4.2625927558916508e-05</v>
+      </c>
+      <c r="G4" s="0">
+        <v>0</v>
+      </c>
+      <c r="H4" s="0">
+        <v>9.2190466999610664e-05</v>
+      </c>
+      <c r="I4" s="0">
+        <v>0.0012699441294688287</v>
+      </c>
+      <c r="J4" s="0">
+        <v>0.00021410389113827785</v>
+      </c>
+      <c r="K4" s="0">
+        <v>0.000659260623879665</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="0">
+        <v>0.26739971927104583</v>
+      </c>
+      <c r="C5" s="0">
+        <v>0.00052514959769744724</v>
+      </c>
+      <c r="D5" s="0">
+        <v>-0.0063518518489265857</v>
+      </c>
+      <c r="E5" s="0">
+        <v>-0.0015089273971272237</v>
+      </c>
+      <c r="F5" s="0">
+        <v>-0.0040432337662640126</v>
+      </c>
+      <c r="G5" s="0">
+        <v>-0.00012363241229197306</v>
+      </c>
+      <c r="H5" s="0">
+        <v>-0.00017363693810622916</v>
+      </c>
+      <c r="I5" s="0">
+        <v>-6.0935254294835703e-06</v>
+      </c>
+      <c r="J5" s="0">
+        <v>0</v>
+      </c>
+      <c r="K5" s="0">
+        <v>-0.00018994158737556388</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="0">
+        <v>0.46000123985610608</v>
+      </c>
+      <c r="C6" s="0">
+        <v>0.24665538729383008</v>
+      </c>
+      <c r="D6" s="0">
+        <v>0</v>
+      </c>
+      <c r="E6" s="0">
+        <v>-1.9351253881998071e-05</v>
+      </c>
+      <c r="F6" s="0">
+        <v>0.00048862380125114094</v>
+      </c>
+      <c r="G6" s="0">
+        <v>0</v>
+      </c>
+      <c r="H6" s="0">
+        <v>0.00018785031944553826</v>
+      </c>
+      <c r="I6" s="0">
+        <v>-0.0005054345915936646</v>
+      </c>
+      <c r="J6" s="0">
+        <v>0</v>
+      </c>
+      <c r="K6" s="0">
+        <v>0.003551088021365334</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="0">
+        <v>0.48813843739473844</v>
+      </c>
+      <c r="C7" s="0">
+        <v>0</v>
+      </c>
+      <c r="D7" s="0">
+        <v>-0.022457767076167905</v>
+      </c>
+      <c r="E7" s="0">
+        <v>0.00071739768624669059</v>
+      </c>
+      <c r="F7" s="0">
+        <v>0.0070076506713689767</v>
+      </c>
+      <c r="G7" s="0">
+        <v>0.0022629293614850783</v>
+      </c>
+      <c r="H7" s="0">
+        <v>0</v>
+      </c>
+      <c r="I7" s="0">
+        <v>0.0010872677774053823</v>
+      </c>
+      <c r="J7" s="0">
+        <v>0</v>
+      </c>
+      <c r="K7" s="0">
+        <v>0.0023041846760109008</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="0">
+        <v>0.18648312844941425</v>
+      </c>
+      <c r="C8" s="0">
+        <v>-0.28829728628522711</v>
+      </c>
+      <c r="D8" s="0">
+        <v>0</v>
+      </c>
+      <c r="E8" s="0">
+        <v>6.8938753136393795e-05</v>
+      </c>
+      <c r="F8" s="0">
+        <v>-0.005949420295446017</v>
+      </c>
+      <c r="G8" s="0">
+        <v>0</v>
+      </c>
+      <c r="H8" s="0">
+        <v>-9.2415224970916857e-05</v>
+      </c>
+      <c r="I8" s="0">
+        <v>0.0033919398626053908</v>
+      </c>
+      <c r="J8" s="0">
+        <v>0</v>
+      </c>
+      <c r="K8" s="0">
+        <v>0.00013269504494523021</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="0">
+        <v>0.070754236615528876</v>
+      </c>
+      <c r="C9" s="0">
+        <v>0</v>
+      </c>
+      <c r="D9" s="0">
+        <v>-0.040934969923016915</v>
+      </c>
+      <c r="E9" s="0">
+        <v>-0.023020686590372149</v>
+      </c>
+      <c r="F9" s="0">
+        <v>-0.12816115642791909</v>
+      </c>
+      <c r="G9" s="0">
+        <v>-0.0022764965256005577</v>
+      </c>
+      <c r="H9" s="0">
+        <v>-0.0039490148493454055</v>
+      </c>
+      <c r="I9" s="0">
+        <v>0.00031605590107011624</v>
+      </c>
+      <c r="J9" s="0">
+        <v>0</v>
+      </c>
+      <c r="K9" s="0">
+        <v>-0.0002251002274011038</v>
       </c>
     </row>
   </sheetData>

--- a/Nowcasts/2025Q2/tables/nowcasts_2025Q3_Nr1_Np3_Nj1.xlsx
+++ b/Nowcasts/2025Q2/tables/nowcasts_2025Q3_Nr1_Np3_Nj1.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>Row</t>
   </si>
@@ -22,6 +22,63 @@
   </si>
   <si>
     <t>2025-04-15</t>
+  </si>
+  <si>
+    <t>Prognose</t>
+  </si>
+  <si>
+    <t>surveys</t>
+  </si>
+  <si>
+    <t>production</t>
+  </si>
+  <si>
+    <t>orders</t>
+  </si>
+  <si>
+    <t>turnover</t>
+  </si>
+  <si>
+    <t>financial</t>
+  </si>
+  <si>
+    <t>labor market</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>national accounts</t>
+  </si>
+  <si>
+    <t>Revision</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>2025-03-30</t>
+  </si>
+  <si>
+    <t>2025-04-15</t>
+  </si>
+  <si>
+    <t>2025-04-30</t>
+  </si>
+  <si>
+    <t>2025-05-15</t>
+  </si>
+  <si>
+    <t>2025-05-30</t>
+  </si>
+  <si>
+    <t>2025-06-15</t>
+  </si>
+  <si>
+    <t>2025-06-30</t>
+  </si>
+  <si>
+    <t>2025-07-15</t>
   </si>
   <si>
     <t>Prognose</t>
@@ -172,42 +229,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="B2" s="0">
         <v>0.2922520866107145</v>
@@ -242,7 +299,7 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="B3" s="0">
         <v>0.28443469941904764</v>
@@ -277,7 +334,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="B4" s="0">
         <v>0.29983528990147496</v>
@@ -312,7 +369,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="B5" s="0">
         <v>0.26739971927104583</v>
@@ -347,7 +404,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="B6" s="0">
         <v>0.46000123985610608</v>
@@ -382,7 +439,7 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="B7" s="0">
         <v>0.48813843739473844</v>
@@ -417,7 +474,7 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="B8" s="0">
         <v>0.18648312844941425</v>
@@ -452,7 +509,7 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="B9" s="0">
         <v>0.070754236615528876</v>
